--- a/biology/Médecine/Région_de_bien-être_de_Finlande_centrale/Région_de_bien-être_de_Finlande_centrale.xlsx
+++ b/biology/Médecine/Région_de_bien-être_de_Finlande_centrale/Région_de_bien-être_de_Finlande_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Finlande_centrale</t>
+          <t>Région_de_bien-être_de_Finlande_centrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région de bien-être de Finlande centrale (en finnois : Keski-Suomen hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours en Finlande centrale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de bien-être de Finlande centrale (en finnois : Keski-Suomen hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours en Finlande centrale.
 C'est l'une des 23 régions de bien-être de Finlande.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Finlande_centrale</t>
+          <t>Région_de_bien-être_de_Finlande_centrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Municipalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région compte 22 municipalités, dont 6 villes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région compte 22 municipalités, dont 6 villes.
 Jyväskylä
 Jämsä
 Äänekoski
@@ -586,7 +600,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Finlande_centrale</t>
+          <t>Région_de_bien-être_de_Finlande_centrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -604,7 +618,9 @@
           <t>Politique et administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les élections régionales finlandaises de 2022 ont eu lieu le 23 janvier 2022 afin de désigner pour la première fois les 69 conseillers régionaux élus pour 3 ans pour administrer la région de services du bien-être de Finlande centrale.
 La répartition des voix et des sièges sont les suivantes :
